--- a/resources/Anunciants2019/anunciants 2019.xlsx
+++ b/resources/Anunciants2019/anunciants 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
   <si>
     <t xml:space="preserve">ANUNCIANT</t>
   </si>
@@ -31,55 +31,103 @@
     <t xml:space="preserve">PREU</t>
   </si>
   <si>
+    <t xml:space="preserve">CONFIRMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFETERIA ALHAMBRA</t>
   </si>
   <si>
     <t xml:space="preserve">ARROM</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cafeteria_alhambra.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGUAS ESTABLIMENTS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/aguas_establiments.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOCIETAT COLOMBICULTURA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/societat_columbicultora.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSTERIA ARROM</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/fusteria_arrom_3.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB SA CABANETA</t>
   </si>
   <si>
     <t xml:space="preserve">TRAVE</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPAI BELLESA MAYRATA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/espai_bellesa_mayrata.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELS FERRERETS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/els_ferrerets.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">VINCLES</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/vincles.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">LITTLE OAKS NURSERY</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/little_oaks.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFÈ CAN JAUME</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cafe_can_jaume.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRUIM BÉ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/construim_be.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTIGA RURAL SON CAULELLES</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/son_caulelles.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUTO OLMO</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/AutosOlmo.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUFETE SIQUIER ABOGADOS</t>
   </si>
   <si>
     <t xml:space="preserve">CHENDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/bufete_siquier_abogados.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">TALLERS TOMEU JOAN</t>
@@ -410,6 +458,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -431,27 +480,32 @@
       <sz val="10"/>
       <name val="Mangal"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Mangal"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,8 +563,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -518,7 +576,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +597,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,16 +615,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Resultado" xfId="20"/>
-    <cellStyle name="Resultado2" xfId="21"/>
-    <cellStyle name="Título" xfId="22"/>
-    <cellStyle name="Título1" xfId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Resultado" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Resultado2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Título" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Título1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -575,18 +637,18 @@
   <dimension ref="A1:AMJ110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="64.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -601,1431 +663,1653 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>300</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>350</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
+      <c r="A109" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
+      <c r="A110" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.09444444444444" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Negrita"&amp;15ANUNCIANTS 2018</oddHeader>
+    <oddHeader>&amp;C&amp;15ANUNCIANTS 2018</oddHeader>
     <oddFooter>&amp;CActualitzat 05/06/2018</oddFooter>
   </headerFooter>
 </worksheet>

--- a/resources/Anunciants2019/anunciants 2019.xlsx
+++ b/resources/Anunciants2019/anunciants 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="238">
   <si>
     <t xml:space="preserve">ANUNCIANT</t>
   </si>
@@ -70,390 +70,680 @@
     <t xml:space="preserve">TRAVE</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cb_sa_cabaneta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPAI BELLESA MAYRATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/espai_bellesa_mayrata.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELS FERRERETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/els_ferrerets.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINCLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/vincles.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITTLE OAKS NURSERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/little_oaks.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFÈ CAN JAUME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cafe_can_jaume.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUIM BÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/construim_be.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIGA RURAL SON CAULELLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/son_caulelles.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO OLMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/AutosOlmo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUFETE SIQUIER ABOGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHENDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/bufete_siquier_abogados.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLERS TOMEU JOAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">resources/Logos/Pasats/</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPAI BELLESA MAYRATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/espai_bellesa_mayrata.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELS FERRERETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/els_ferrerets.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINCLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/vincles.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITTLE OAKS NURSERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/little_oaks.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFÈ CAN JAUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/cafe_can_jaume.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTRUIM BÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/construim_be.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTIGA RURAL SON CAULELLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/son_caulelles.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO OLMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/AutosOlmo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUFETE SIQUIER ABOGADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHENDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resources/Logos/Pasats/bufete_siquier_abogados.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLERS TOMEU JOAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAR MIGJORN</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/bar_migjorn.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PÒRTOL FC</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/portol_fc.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN PEP</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/can_pep.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES MAGATZEM DES FORN</t>
   </si>
   <si>
     <t xml:space="preserve">CRIS</t>
   </si>
   <si>
-    <t xml:space="preserve">TERRA ROTJA + SENALLA VERDA</t>
+    <t xml:space="preserve">resources/Logos/Pasats/es_magatzem_des_forn.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRA ROTJA SENALLA VERDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/terra_rotja.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">CAN PINET</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/can_pinet.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CATI AMENGUAL PERRUQUERIA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cati_amengual_perruqueria.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPAI TERRA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/espaiterra_herboristeria.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAPERERIA S’ESTEL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/papereria_sestel.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAR SA TROBADA </t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/SaTrobada.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIQUEL VADELL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/miquel_vadell.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENATGE 5</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/Menatge5.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRUCCIONS SERRA GARAU</t>
   </si>
   <si>
     <t xml:space="preserve">TANIA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/construccions_serra_garau.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONA PINTA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/bona_pinta.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSELL DE MALLORCA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/consell_de_mallorca.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEBASTIÀ MULET CAÑELLAS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sebastia_mulet_canyellas.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOCA-ARREL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/soca_arrel.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAJOR 82</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/major_82_espai_musica.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">APOTECARIA PÒRTOL</t>
   </si>
   <si>
     <t xml:space="preserve">JOSE</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/apotecaria_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN GARAU</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/forn_garau.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLÍNICA VETERINÀRIA ST MARÇAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/clinica_veterinaria_sant_marcal.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRIALSA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/frialsa.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARTÍ AMENGUAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/marti_amengual_frau.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SITOS BAR</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sitos_bar.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSESSORIA RAMIS</t>
   </si>
   <si>
     <t xml:space="preserve">JULI</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/assessoria_ramis.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ART PERRUQUERIA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/art_perruqueria.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAR SA CABANETA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/BarSaCabaneta.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">CA NA PEPA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/suma_ca_na_pepa.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIMONCELLO</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/limoncello.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLLERIA CAN VENT</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/olleria_can_vent.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOCIETAT CAÇADORS DE PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/societat_cacadors_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA SOMADA</t>
   </si>
   <si>
     <t xml:space="preserve">PARETS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sa_somada.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRISTALERIA SANT MARÇAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cristaleria_sant_marcal.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFETERIA CAN CHUS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/can_chus.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">MATEU MOTORS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/mateu_motors.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN MATEU MATERIALS CONSTRUCCIÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/materials_construccio_can_mateu.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN XIC</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/can_xic.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRUCCION RRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/contruccions_rram.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">FERROCOLAT</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/ferrocolat.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUP UCC</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/Ucc.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUTOESCOLA KALET</t>
   </si>
   <si>
     <t xml:space="preserve">PEDRO</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/autoescola_kalet.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">COFRARIA MARE DE DÉU DEL CARME</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/confraria_mare_de_deu_del_carme.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENERGIAVITAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/energiavital.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUP REBASSA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/grup_rabasa.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSOCIACIÓ VEÏNATS DE PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/associacio_la_pua_portol.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSOCIACIÓ REIS D’ORIENT PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/associacio_reis_de_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERRUQUERIA CANTONA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/perruqueria_cantona.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRUCCIONS PEP I TOLO</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/construccions_pep_i_tolo.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMENGUAL AQUÍ – CALET ARQUITECTES</t>
   </si>
   <si>
     <t xml:space="preserve">RAFA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/amengual_aqui_arquitectes.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">JARDINS CJV</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/jardins_cjv.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFETERIA ANTIC TROTÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/antic_troton.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLONETTE GRANIZADOS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/colonette.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES GLOP</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/es_glop.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">JORDI SBERT</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/jordi_sbert.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEP RAMIS INSTAL·LACIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/pep_ramis.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PISCINES JM RUSTIC</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/piscines_jm_rustic.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPORTING ST MARÇAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sporting_st_marcal.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERDERA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/verdera.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAS TORD + PEP MASCARÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cas_tord_pep_mascaró.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">MULTISERVICIOS MOYÀ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/Multiservicios_Moya.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALEARDART</t>
   </si>
   <si>
     <t xml:space="preserve">RAMIS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/BalearDart.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PODES I TALES TOMEU CATALÀ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/podes_i_tales.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFÈ DE PÒRTOL (PRATS)</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cafe_portol_prats.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES RACÓ DE PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/es_raco_de_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERRUQUERIA MARAZZA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/perruqueria_marazza.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERRUQUERIA S’IMATGE</t>
   </si>
   <si>
     <t xml:space="preserve">COLL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/perruqueria_simatge.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mª MAGDALENA AMENGUAL MARTORELL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/maria_magdalena_amengual.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CA SES NINES </t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/ca_ses_nines.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE BLANC</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/de_blanc_diseño_floral.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESTRUCTURAS METALICAS CAÑELLAS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/estructuras_metalicas_cañellas.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">GERMANS BONET PORTES</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/germans_bonet_portes_automatiques.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES MERCA</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/es_merca.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLUB 2T MOTORS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/club_2t_motos.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">GESTORIA ANTONIO JUAN AMENGUAL </t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/gestoria_antonio_juan.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/cv_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAFEL I XISCO PINTORS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/rafel_i_xisco_pintures.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">TÖL CERAMICS WORKS</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/tol_ceramic_works.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">TALLER SANT MARÇAL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/taller_sant_marcal.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">REFLEXOLOGIA PODAL JUDITH VICH</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/reflexologia_podal_judith_vich.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOAN MOTOCAR</t>
   </si>
   <si>
     <t xml:space="preserve">TOFOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/joan_motocar.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">XISCO NADAL VERDEROL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/xisco_verderol_reformes.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">GERRERIA PERE COLL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/gerreria_pere_coll.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLÍNICA VETERINÀRIA PÒRTOL</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/clinica_veterinaria_portol.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">L’ALBELLO</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/albello.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLLERIA CAN BERNADÍ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/olleria_can_bernadi.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLLERIA CAS CONONGE</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/olleria_cas_canonge.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">FISIOTERAPIA TONI SIQUIER</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/fisioterapia_toni_siquier.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA ROCA LLISA 26</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sa_roca_llisa.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEBASTIÀ CARBURACIÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/sebastia_carburacio.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAPISSERIES TORRELLÓ CATALÀ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/tapisseries_torrelo_catala.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROTECCIÓ CIVIL MARRATXÍ</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/proteccio_civil_marratxi.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOT ESPECTACLE</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/tot_espectacle.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAFETERIA CAN RAMON</t>
   </si>
   <si>
+    <t xml:space="preserve">resources/Logos/Pasats/CafCanRamon.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRUCCION J.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/Construcciones_J_C.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENALLA VERDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resources/Logos/Pasats/senalla_verda.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-403];[RED]\-#,##0.00\ [$€-403]"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -474,19 +764,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -539,7 +816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,20 +840,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,11 +850,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,7 +866,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,22 +874,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Resultado" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Resultado2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Título" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Título1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -634,10 +899,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ110"/>
+  <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,10 +910,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="64.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -893,12 +1158,12 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -908,12 +1173,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
@@ -923,12 +1188,12 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
@@ -938,1319 +1203,1319 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>40</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>300</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="5" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>350</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="F78" s="1"/>
       <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="5" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="5" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="5" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="5" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="5" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="5" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="5" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="5" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="5" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="5" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4" t="n">
@@ -2258,12 +2523,12 @@
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="n">
@@ -2271,37 +2536,51 @@
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C109" s="7" t="n">
         <v>40</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="5" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C110" s="7" t="n">
         <v>40</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="5" t="s">
-        <v>16</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
